--- a/mcenter/WebContent/report/playerFund/playerFund.xlsx
+++ b/mcenter/WebContent/report/playerFund/playerFund.xlsx
@@ -93,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,22 +107,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,62 +136,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +158,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +184,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,6 +214,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -246,6 +231,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,19 +273,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,139 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +474,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,13 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,25 +545,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,153 +563,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1036,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1086,25 +1099,25 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/mcenter/WebContent/report/playerFund/playerFund.xlsx
+++ b/mcenter/WebContent/report/playerFund/playerFund.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -93,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,13 +110,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -121,6 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -137,70 +226,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,45 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +263,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,31 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,18 +470,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +494,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -545,6 +515,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -563,94 +559,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,52 +655,52 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,10 +708,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,51 +1029,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="23.3333333333333" customWidth="1"/>
-    <col min="4" max="5" width="8.77777777777778" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="8.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="22.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" ht="38" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1086,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" ht="24" customHeight="1" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1101,7 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1124,6 +1126,11 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
